--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Diop', 'Bryan']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Savanier', 'Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Ganiou']</t>
-  </si>
-  <si>
-    <t>['Laporte']</t>
-  </si>
-  <si>
-    <t>['Lebas']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Gusto']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
-  </si>
-  <si>
-    <t>['Serhuis', 'Moalida', 'Lopy', 'Moalida']</t>
+    <t>['Caqueret', 'Tagliafico', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Aboukhlal', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Fonte']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Kroupi', 'Pelon']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Le_Marchand']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Mounie', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Le_Cardinal', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Bellegarde', 'H.Diallo', 'Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Porozo', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Dallinga']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Autret', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Ramos', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Alioui', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Pele']</t>
+    <t>['Simon', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Henrique', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Hamouma', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Attal', 'Diop', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Sima']</t>
+  </si>
+  <si>
+    <t>['Maurer']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -555,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -575,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -584,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -596,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -616,16 +622,16 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -651,7 +657,7 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -662,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -671,19 +677,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -691,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -700,19 +706,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -738,7 +744,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -749,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -758,19 +764,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -778,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -787,19 +793,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -807,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -816,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -825,7 +831,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>1</v>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,118 @@
     <t>Points exté</t>
   </si>
   <si>
+    <t>['Flips', 'Flips']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Caqueret', 'Tagliafico', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Aboukhlal', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Fonte']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Kroupi', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Mounie', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Le_Cardinal', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Santamaria']</t>
+    <t>['Pepe', 'Beka', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Brassier', 'Elis', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Simon', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Henrique', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Hamouma', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Diop', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Sima']</t>
-  </si>
-  <si>
-    <t>['Maurer']</t>
+    <t>['Germain']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Kalimuendo', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'Le_Marchand', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Ratao']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Cherki']</t>
   </si>
 </sst>
 </file>
@@ -552,28 +546,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -581,25 +575,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -610,28 +604,28 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4">
         <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,25 +633,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -668,25 +662,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -697,28 +691,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -729,25 +723,25 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,28 +749,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,25 +778,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -816,25 +810,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,118 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Flips', 'Flips']</t>
+    <t>['Tolisso', 'Lepenant', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Spierings', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Girotto']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Soler', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Corduan']</t>
+  </si>
+  <si>
+    <t>['Terrier']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Pepe', 'Beka', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Brassier', 'Elis', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Doumbia']</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>['Germain']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Kalimuendo', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Le_Marchand', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Ratao']</t>
-  </si>
-  <si>
-    <t>['Versini']</t>
-  </si>
-  <si>
-    <t>['Tagliafico', 'Cherki']</t>
+    <t>['Le_Fee', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Merdji']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Elis', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'Yoro']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Palaversa']</t>
+  </si>
+  <si>
+    <t>['Lienard']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Boyer', 'Gastien']</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -555,10 +558,10 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -567,15 +570,15 @@
         <v>37</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -584,10 +587,10 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -596,27 +599,27 @@
         <v>38</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -625,24 +628,24 @@
         <v>39</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -659,19 +662,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -688,71 +691,71 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -767,7 +770,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -775,19 +778,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -804,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -816,19 +819,19 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Tolisso', 'Lepenant', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Terrier']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Assignon', 'Gouiri', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Tolisso']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Laborde']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Kabore']</t>
+  </si>
+  <si>
+    <t>['Ramos']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Merdji']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Elis', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Lienard']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Boyer', 'Gastien']</t>
+    <t>['Chardonnet', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Moalida', 'Serhuis']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Ripart', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Girotto', 'Guessand', 'Castelletto', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Le_Fee', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Bamba', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Alphonse']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -564,27 +567,27 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -593,39 +596,39 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -633,118 +636,118 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,33 +755,33 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,48 +790,48 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Tolisso', 'Lepenant', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Spierings', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Zeneli', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Girotto']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Soler', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Terrier']</t>
+    <t>['Ruiz', 'Mbappe', 'Kipembe', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Simon', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Pele', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Moffi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['David', 'Andre']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Alioui']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Gonzalez']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Merdji']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Elis', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Lienard']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Boyer', 'Gastien']</t>
+    <t>['Wieteska']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Tchato']</t>
+  </si>
+  <si>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Sylla']</t>
+  </si>
+  <si>
+    <t>['Kabore']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Jeanvier', 'Jeanvier']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Dallinga', 'ChaÃ¯bi', 'Ratao']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,172 +555,172 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
         <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -758,27 +758,27 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,45 +787,45 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
         <v>46</v>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Assignon', 'Gouiri', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Tolisso']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Sylla']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Kabore']</t>
+    <t>['Desler', 'Desler']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Pereira', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Lega', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Mounie', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Khazri']</t>
   </si>
   <si>
     <t>['Ramos']</t>
   </si>
   <si>
+    <t>['Sima', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Bellegarde']</t>
-  </si>
-  <si>
-    <t>['Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Moalida', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Ripart', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Guessand', 'Castelletto', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Le_Fee', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Bamba', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Alphonse']</t>
+    <t>['Porozo']</t>
+  </si>
+  <si>
+    <t>['Bayo']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Aguilar', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Dugimont', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Burlet', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Wooh']</t>
+  </si>
+  <si>
+    <t>['Ponceau']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Sanson', 'Djiku', 'Bellegarde']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Flips', 'Serhuis']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,12 +776,12 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Doumbia', 'Masson', 'Sima', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Serrano', 'Ben_Yedder', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Perrin', 'Bellegarde', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Cabella', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Lopy', 'Balogin']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Nordin']</t>
-  </si>
-  <si>
-    <t>['Massolin']</t>
-  </si>
-  <si>
-    <t>['Caqueret']</t>
+    <t>['Delaine', 'Perrin', 'Gameiro', 'Sanson']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Odobert', 'Ripart', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Lebas', "N'Diaye"]</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Aboukhlal', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Versini']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Masson']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Strasbourg</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Sylla', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Ripart', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Ponceau', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
-  </si>
-  <si>
-    <t>['Traore', 'Rodon', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Vidal', 'Hamouma', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Messi', 'Sanches']</t>
+    <t>['Simon', 'Simon']</t>
+  </si>
+  <si>
+    <t>['Tchato']</t>
+  </si>
+  <si>
+    <t>['Bain']</t>
+  </si>
+  <si>
+    <t>['Ruiz']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Serhuis', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Bryan', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Pereira']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Andre', 'Ribeiro']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -558,19 +555,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -587,19 +584,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -607,7 +604,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -616,19 +613,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -645,19 +642,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -665,36 +662,36 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -703,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -712,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -741,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -752,7 +749,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -761,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -770,10 +767,10 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -790,19 +787,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,16 +807,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -828,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Delaine', 'Perrin', 'Gameiro', 'Sanson']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Odobert', 'Ripart', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Lebas', "N'Diaye"]</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Aboukhlal', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Versini']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Masson']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Jakobs', 'Ben_Yedder', 'Pele']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Maurer', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Chavalerin', 'Chavalerin', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Spierings']</t>
+  </si>
+  <si>
+    <t>['Rodon']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>OM</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Brest</t>
+    <t>Lens</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Simon', 'Simon']</t>
-  </si>
-  <si>
-    <t>['Tchato']</t>
-  </si>
-  <si>
-    <t>['Bain']</t>
-  </si>
-  <si>
-    <t>['Ruiz']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Serhuis', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Bryan', 'Attal']</t>
-  </si>
-  <si>
-    <t>['Pereira']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson', 'Andre', 'Ribeiro']</t>
+    <t>['Le_Goff', 'Laporte', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Brahimi']</t>
+  </si>
+  <si>
+    <t>['Verrati', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Merdji', 'Pellenard', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Gigot']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Roure']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Valencia', 'Varane', 'Pereira']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Guillaume']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +546,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
       <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
+      <c r="G7">
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>33</v>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/jour15.xlsx
+++ b/jour15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,118 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Serrano', 'Jakobs', 'Ben_Yedder', 'Pele']</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Maurer', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Chavalerin', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Spierings']</t>
-  </si>
-  <si>
-    <t>['Rodon']</t>
+    <t>['Moalida', 'Ito', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Dante', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
+  </si>
+  <si>
+    <t>['Girotto']</t>
+  </si>
+  <si>
+    <t>['Wahi']</t>
+  </si>
+  <si>
+    <t>['Matsima']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
+    <t>Lens</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>['Le_Goff', 'Laporte', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Brahimi']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Merdji', 'Pellenard', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Gigot']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Valencia', 'Varane', 'Pereira']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Guillaume']</t>
+    <t>['Autret', 'Autret', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Mbappe']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Elis']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Versini', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Sanchez', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Assignon', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Boura', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Capelle']</t>
   </si>
 </sst>
 </file>
@@ -555,45 +561,45 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -602,25 +608,25 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -628,147 +634,147 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
         <v>24</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -777,30 +783,30 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -812,95 +818,95 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
